--- a/big b fresh store MT.xlsx
+++ b/big b fresh store MT.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" tabRatio="869" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" tabRatio="869" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="2" r:id="rId1"/>
-    <sheet name="Test Scenarios" sheetId="33" r:id="rId2"/>
-    <sheet name="Test Case for Register" sheetId="1" r:id="rId3"/>
-    <sheet name="Login" sheetId="3" r:id="rId4"/>
-    <sheet name="Logout" sheetId="4" r:id="rId5"/>
-    <sheet name="Forgot Password" sheetId="5" r:id="rId6"/>
+    <sheet name="Mind Map" sheetId="34" r:id="rId2"/>
+    <sheet name="Test Scenarios" sheetId="33" r:id="rId3"/>
+    <sheet name="Test Case for Register" sheetId="1" r:id="rId4"/>
+    <sheet name="Login" sheetId="3" r:id="rId5"/>
+    <sheet name="Logout" sheetId="4" r:id="rId6"/>
+    <sheet name="Forgot Password" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Case for Register'!$A$1:$K$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Test Case for Register'!$A$1:$K$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1525,35 +1526,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -1766,6 +1739,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>443309</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="571500"/>
+          <a:ext cx="5929709" cy="6381750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2078,6 +2094,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="92" zoomScaleNormal="50" workbookViewId="0">
@@ -2252,7 +2283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K15"/>
@@ -2761,16 +2792,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J15">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2787,7 +2818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K22"/>
@@ -3527,16 +3558,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J22">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3552,7 +3583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K9"/>
@@ -3863,16 +3894,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J9">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3889,12 +3920,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+    <sheetView topLeftCell="E9" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -4497,16 +4528,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J15">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="34" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="14" priority="34" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="36" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="12" priority="36" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
